--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaba/Documents/GitHub/diff_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13799A03-3128-064F-89B7-821B42D8D99E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EE9ACD-69C5-A94E-805A-13C73334DD5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{2F81F727-99BC-6A4C-8ADD-75B8AE3B858A}"/>
   </bookViews>
@@ -27,6 +27,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>はじめてのGitHub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +400,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
